--- a/Instances/SuperSmallIntance.xlsx
+++ b/Instances/SuperSmallIntance.xlsx
@@ -1,29 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\PycharmProjects\scm\Instances\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D6C3BFD-C910-4050-A9B6-FAA74F0F77EF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Generic" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Requirement" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AternateCosts" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Alternates" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Productdata" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ForecastedAverageDemand" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ForcastedStandardDeviation" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Capacity" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ProcessingTime" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="Generic" sheetId="1" r:id="rId1"/>
+    <sheet name="Requirement" sheetId="2" r:id="rId2"/>
+    <sheet name="AternateCosts" sheetId="3" r:id="rId3"/>
+    <sheet name="Alternates" sheetId="4" r:id="rId4"/>
+    <sheet name="Productdata" sheetId="5" r:id="rId5"/>
+    <sheet name="ForecastedAverageDemand" sheetId="6" r:id="rId6"/>
+    <sheet name="ForcastedStandardDeviation" sheetId="7" r:id="rId7"/>
+    <sheet name="Capacity" sheetId="8" r:id="rId8"/>
+    <sheet name="ProcessingTime" sheetId="9" r:id="rId9"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="22">
   <si>
     <t>Name</t>
   </si>
@@ -94,23 +99,24 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -125,26 +131,43 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -432,25 +455,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="B1" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B1" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -458,39 +477,39 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+      <c r="B4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="B5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+      <c r="B6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -498,42 +517,36 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+      <c r="B8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B1" s="1" t="s">
         <v>10</v>
       </c>
@@ -544,68 +557,62 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="n">
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B1" s="1" t="s">
         <v>10</v>
       </c>
@@ -616,68 +623,62 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" t="n">
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="n">
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B1" s="1" t="s">
         <v>10</v>
       </c>
@@ -688,68 +689,62 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="n">
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B1" s="1" t="s">
         <v>13</v>
       </c>
@@ -778,122 +773,116 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" t="n">
-        <v>10</v>
-      </c>
-      <c r="D2" t="n">
-        <v>10</v>
-      </c>
-      <c r="E2" t="n">
-        <v>5</v>
-      </c>
-      <c r="F2" t="n">
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>10</v>
+      </c>
+      <c r="D2">
+        <v>10</v>
+      </c>
+      <c r="E2">
+        <v>5</v>
+      </c>
+      <c r="F2">
         <v>100</v>
       </c>
-      <c r="G2" t="n">
-        <v>10</v>
-      </c>
-      <c r="H2" t="n">
-        <v>5</v>
-      </c>
-      <c r="I2" t="n">
+      <c r="G2">
+        <v>10</v>
+      </c>
+      <c r="H2">
+        <v>5</v>
+      </c>
+      <c r="I2">
         <v>1000</v>
       </c>
-      <c r="J2" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
+      <c r="J2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="n">
-        <v>5</v>
-      </c>
-      <c r="D3" t="n">
-        <v>5</v>
-      </c>
-      <c r="E3" t="n">
-        <v>5</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>5</v>
+      </c>
+      <c r="D3">
+        <v>5</v>
+      </c>
+      <c r="E3">
+        <v>5</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B4" t="n">
-        <v>1</v>
-      </c>
-      <c r="C4" t="n">
-        <v>5</v>
-      </c>
-      <c r="D4" t="n">
-        <v>5</v>
-      </c>
-      <c r="E4" t="n">
-        <v>5</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>5</v>
+      </c>
+      <c r="E4">
+        <v>5</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B1" s="1" t="s">
         <v>10</v>
       </c>
@@ -904,96 +893,90 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>10</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>10</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1" t="n">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>10</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>10</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" t="n">
-        <v>10</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="1" t="n">
+      <c r="B4">
+        <v>10</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" t="n">
-        <v>10</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="1" t="n">
+      <c r="B5">
+        <v>10</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" t="n">
-        <v>10</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" t="n">
+      <c r="B6">
+        <v>10</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B1" s="1" t="s">
         <v>10</v>
       </c>
@@ -1004,197 +987,185 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>5</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>5</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1" t="n">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>5</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>5</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" t="n">
-        <v>5</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="1" t="n">
+      <c r="B4">
+        <v>5</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" t="n">
-        <v>5</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="1" t="n">
+      <c r="B5">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" t="n">
-        <v>5</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" t="n">
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="B1" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B1" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="1" t="n">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>5</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="B1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="n">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B1" s="1">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="n">
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Instances/SuperSmallIntance.xlsx
+++ b/Instances/SuperSmallIntance.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\PycharmProjects\scm\Instances\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D6C3BFD-C910-4050-A9B6-FAA74F0F77EF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5B36AF9-6515-4F47-A351-82E71EA01C07}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,14 @@
     <sheet name="Capacity" sheetId="8" r:id="rId8"/>
     <sheet name="ProcessingTime" sheetId="9" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -462,7 +469,7 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B1" s="1">
@@ -490,7 +497,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
@@ -544,7 +551,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B1" s="1" t="s">
@@ -610,7 +617,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B1" s="1" t="s">
@@ -676,7 +683,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B1" s="1" t="s">
@@ -742,7 +749,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B1" s="1" t="s">
@@ -880,7 +887,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B1" s="1" t="s">
@@ -974,7 +981,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B1" s="1" t="s">
@@ -1068,7 +1075,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B1" s="1">
@@ -1110,7 +1117,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B1" s="1">

--- a/Instances/SuperSmallIntance.xlsx
+++ b/Instances/SuperSmallIntance.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\PycharmProjects\scm\Instances\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5B36AF9-6515-4F47-A351-82E71EA01C07}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7D402B3-9115-4CB9-B210-47327110533E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7750" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Generic" sheetId="1" r:id="rId1"/>
@@ -465,8 +465,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -529,7 +529,7 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
@@ -747,9 +747,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="3" max="3" width="22.90625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B1" s="1" t="s">
@@ -788,7 +793,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D2">
         <v>10</v>
@@ -820,7 +825,7 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D3">
         <v>5</v>
@@ -852,7 +857,7 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D4">
         <v>5</v>
@@ -883,9 +888,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
@@ -905,7 +912,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -919,7 +926,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -967,6 +974,34 @@
         <v>0</v>
       </c>
       <c r="D6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>10</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>10</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
         <v>0</v>
       </c>
     </row>

--- a/Instances/SuperSmallIntance.xlsx
+++ b/Instances/SuperSmallIntance.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\PycharmProjects\scm\Instances\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7D402B3-9115-4CB9-B210-47327110533E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31FA485E-5B14-4DE2-828C-34E7ECA5BDCC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7750" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Generic" sheetId="1" r:id="rId1"/>
@@ -615,7 +615,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
@@ -641,7 +643,7 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
@@ -666,7 +668,7 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -681,7 +683,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
@@ -721,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
@@ -732,7 +736,7 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -747,7 +751,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
